--- a/SourceDataTables/FigS8.xlsx
+++ b/SourceDataTables/FigS8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
   <si>
     <t>LOOCV_RMSE</t>
   </si>
@@ -36,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -46,14 +46,38 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -70,7 +94,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/SourceDataTables/FigS8.xlsx
+++ b/SourceDataTables/FigS8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
   <si>
     <t>LOOCV_RMSE</t>
   </si>
@@ -36,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -58,11 +58,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -78,6 +80,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,7 +98,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>

--- a/SourceDataTables/FigS8.xlsx
+++ b/SourceDataTables/FigS8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>LOOCV_RMSE</t>
   </si>
@@ -36,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,42 +46,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,4613 +70,4613 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.0057110696690961483</v>
+        <v>0.0057343834308989632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0089475670555110593</v>
+        <v>0.0089826326736526345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.0022153720289292381</v>
+        <v>0.0022013344183009244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.007933411836169281</v>
+        <v>0.0079830223537010192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.0025218991753383668</v>
+        <v>0.0025166388026101358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.0052404524834514053</v>
+        <v>0.0052527100206460741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.0080664437310715414</v>
+        <v>0.0080882972273248459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.011340432535905737</v>
+        <v>0.011368001059372893</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.013640380120822151</v>
+        <v>0.013673420158622409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.013841247189646936</v>
+        <v>0.013873320180136631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0060724037329449084</v>
+        <v>0.0060736388903184727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.0091910752284228882</v>
+        <v>0.0091916792715662637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.010412648620036463</v>
+        <v>0.010415724572286076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.011450807267695644</v>
+        <v>0.011461089754021461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.014059123097778696</v>
+        <v>0.014072223588325881</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.014469585635107911</v>
+        <v>0.014480809936532833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.015495714819476175</v>
+        <v>0.015509237006846659</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.013989017990855447</v>
+        <v>0.014002467278724727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.012982209062680865</v>
+        <v>0.012967874770410327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.013488356019512098</v>
+        <v>0.013481797508862301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.011632512081946335</v>
+        <v>0.011634275640130198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.012769151165197862</v>
+        <v>0.012762698520195645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.012761538100590863</v>
+        <v>0.012754546453250205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.015148033280340934</v>
+        <v>0.015138413705530243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.014460381916558651</v>
+        <v>0.01444620797768123</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.013665763581545037</v>
+        <v>0.013657322646912369</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.016528470467779572</v>
+        <v>0.016505274251271868</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.01199594387073546</v>
+        <v>0.011988732155334293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.0098974217894166171</v>
+        <v>0.0098934286018370812</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.0098071441100596908</v>
+        <v>0.0098033216750992649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.012683532276650209</v>
+        <v>0.012661596779596074</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.014486173556371098</v>
+        <v>0.014457170044178095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.013189389030257015</v>
+        <v>0.013159259653757889</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.020788211113433729</v>
+        <v>0.020738840780424338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.01510967597180698</v>
+        <v>0.01508207015246317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.0096032663628427967</v>
+        <v>0.0095986214392488473</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.009598596197231378</v>
+        <v>0.009593878861490197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.009285841718886325</v>
+        <v>0.0092735345743297521</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.010782506054882223</v>
+        <v>0.010759995636191254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.010431477474727481</v>
+        <v>0.010412780390575756</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.020096541480928147</v>
+        <v>0.02004463890734174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.013882450581307163</v>
+        <v>0.013858331903863324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.013861200524818552</v>
+        <v>0.01383678461425336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.0096883658447951566</v>
+        <v>0.0096819675168963448</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.0090926727893707159</v>
+        <v>0.0090862942105908884</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.01859483746686626</v>
+        <v>0.018548818533645355</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.018474298153127542</v>
+        <v>0.018428271870535664</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0025809388852323601</v>
+        <v>0.0026105854334842605</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.0031489386524449466</v>
+        <v>0.0031831821589194259</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.0055670895962842007</v>
+        <v>0.0056136123042985495</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.0059504098703383121</v>
+        <v>0.0060057023826608318</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.022244727813491582</v>
+        <v>0.022247422315254128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.0040867184472861817</v>
+        <v>0.0041020418100663003</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.0058039825415055653</v>
+        <v>0.0058229641041981448</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.0080889088985269999</v>
+        <v>0.0081108322171970434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.0099168470633327274</v>
+        <v>0.0099472373150359082</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.010137229003931884</v>
+        <v>0.010166499518880366</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.0096747117608229211</v>
+        <v>0.0097145277324292359</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.0050779479748697233</v>
+        <v>0.005088530934340578</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.0079072212196794178</v>
+        <v>0.0079150539022988346</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.0090024747265785195</v>
+        <v>0.0090128127852537685</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.0087616772709008511</v>
+        <v>0.0087710200349399945</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.010881979678556787</v>
+        <v>0.01088733949037721</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.011192336845726047</v>
+        <v>0.011196857428763312</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.013746431127398026</v>
+        <v>0.013756686072411145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.012664743960099041</v>
+        <v>0.012674360621142093</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.0090054915771768853</v>
+        <v>0.0090004075203989724</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.012115649590752149</v>
+        <v>0.012112606216235043</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.014167548271159873</v>
+        <v>0.014169409645682479</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.010406486239196098</v>
+        <v>0.01041228262574017</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.0092325222587904855</v>
+        <v>0.0092291944324638057</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.01006710959462973</v>
+        <v>0.010060134967156716</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.012912565271862388</v>
+        <v>0.012891237330774255</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.014028586125255767</v>
+        <v>0.014006212792081059</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.014399765636295149</v>
+        <v>0.014385684016674385</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.01275342441782141</v>
+        <v>0.012753402505981549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.018401001024379061</v>
+        <v>0.018370898413118741</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.018094005634122994</v>
+        <v>0.018073181115364115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.011993178759514538</v>
+        <v>0.011988739269768515</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0079689062592991338</v>
+        <v>0.0079641799578644094</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.0080852503630575879</v>
+        <v>0.0080804866911388332</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.014859499493160356</v>
+        <v>0.014858749351771127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.013864561189080134</v>
+        <v>0.013824941493921309</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.015695613389902961</v>
+        <v>0.015654081283834404</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.014925317485993884</v>
+        <v>0.014899518015038618</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.023020981822762566</v>
+        <v>0.022956630805536348</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.022037486172574543</v>
+        <v>0.021985542721265409</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.015716342222704602</v>
+        <v>0.015688083473497372</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.0082691199091000818</v>
+        <v>0.0082664493497183727</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.0082884048614530834</v>
+        <v>0.0082859445483528561</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.0083823564311358324</v>
+        <v>0.0083626773904944308</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.011228629019404062</v>
+        <v>0.011190819468720371</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.0133654064695989</v>
+        <v>0.013326386712565415</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.013484807864763429</v>
+        <v>0.01345010002285342</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.012299382357853279</v>
+        <v>0.012283053942314676</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.026084155331415237</v>
+        <v>0.025998789019512657</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.025438801579036587</v>
+        <v>0.025361221764160807</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.020920541129122658</v>
+        <v>0.020863696165507848</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.012881062422618559</v>
+        <v>0.012856671015616503</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.012921153290890178</v>
+        <v>0.01289722408074305</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.0080714179489771391</v>
+        <v>0.0080657745548376337</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0093710591449061055</v>
+        <v>0.0093492326576793128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.011243415953398121</v>
+        <v>0.011217622968378726</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.011623766770189666</v>
+        <v>0.011598753173385545</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.011361189830887014</v>
+        <v>0.011347407388005441</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.025040897278624848</v>
+        <v>0.024954700215298026</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.026841045018271611</v>
+        <v>0.026756638296545239</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.024385730768047707</v>
+        <v>0.024314803250984951</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.017486335321903392</v>
+        <v>0.017438956858608769</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.017519804667721846</v>
+        <v>0.017472417791515021</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.011286037950812389</v>
+        <v>0.011266744838116603</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.0095356131726483245</v>
+        <v>0.0095229386289552003</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.010026200155863352</v>
+        <v>0.010011079491306687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.010474899879144784</v>
+        <v>0.010461592097225258</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.011268064001983729</v>
+        <v>0.01125935749477147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.026078875544294982</v>
+        <v>0.025994410099273817</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.023834443288607451</v>
+        <v>0.023763273827520852</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.017380184710146442</v>
+        <v>0.017332195351948014</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.017349779104068336</v>
+        <v>0.017301609527281558</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.011203916643275946</v>
+        <v>0.011184094274088381</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.0095192379270981273</v>
+        <v>0.0095064049951694585</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.0099169616972448488</v>
+        <v>0.0099017187474743588</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.010333078837732722</v>
+        <v>0.010319951309046544</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.018473643258377814</v>
+        <v>0.018418912990517906</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.018345752467899167</v>
+        <v>0.018291087883434656</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.013467297119889456</v>
+        <v>0.013430034212584921</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.010993374148555645</v>
+        <v>0.010972126096232951</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.010752198704676858</v>
+        <v>0.010734745706725167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.011297837213759584</v>
+        <v>0.011281312343783498</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0026318549661229784</v>
+        <v>0.0026620984485070209</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.0043228963834967332</v>
+        <v>0.0043638905914109311</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.0032808732563448556</v>
+        <v>0.0033156502035615338</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.0055345647057856379</v>
+        <v>0.0055810646681442692</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.0056766773178529547</v>
+        <v>0.0057318719717171594</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.02174534028714686</v>
+        <v>0.021748465892656627</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.0042801676295138504</v>
+        <v>0.0042967254550644648</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.0060344571015773212</v>
+        <v>0.006053819592725997</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.0082049902608933734</v>
+        <v>0.0082268914653579467</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.009802571985585715</v>
+        <v>0.009832986442132893</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.0096961359533434925</v>
+        <v>0.0097252711300708627</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.0087274827895393297</v>
+        <v>0.0087667453666411075</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.005170640539984386</v>
+        <v>0.0051815302152198404</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.0081009370403742186</v>
+        <v>0.0081090829827657057</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0094030186393761084</v>
+        <v>0.0094139350643546605</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.0090240172018364873</v>
+        <v>0.0090332754450487621</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.011172633441143876</v>
+        <v>0.011177821483540438</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.011353345395275825</v>
+        <v>0.011357812172776784</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.013626846609664216</v>
+        <v>0.013637454533512741</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.011897675499514771</v>
+        <v>0.011908301356232642</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.0095795864042167479</v>
+        <v>0.0095747649062124674</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.012658477530700193</v>
+        <v>0.012655811120125694</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.014624067597206875</v>
+        <v>0.014625975827137339</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.010633551774941234</v>
+        <v>0.010639531682440482</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.010095943321378701</v>
+        <v>0.010089510126151367</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.010307375821709236</v>
+        <v>0.010299938545026104</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.013048067249269291</v>
+        <v>0.013026859909367096</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.013956373251933036</v>
+        <v>0.013935332095873552</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.014011734326510645</v>
+        <v>0.013999073186975443</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.011498062681506228</v>
+        <v>0.011499923743694069</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.014114023989089066</v>
+        <v>0.014085969456808151</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.019150502404750615</v>
+        <v>0.019119104349777868</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.01844440907876755</v>
+        <v>0.018421988309213592</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.011947176845348163</v>
+        <v>0.011942003989637689</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.0082044231617339983</v>
+        <v>0.0081996991177383932</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.0085086261718394923</v>
+        <v>0.0085034765618860995</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.014690530495688192</v>
+        <v>0.014685391026842069</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.014129783671017441</v>
+        <v>0.014089834223862972</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.015844424490109393</v>
+        <v>0.01580425301432976</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.01464266634165202</v>
+        <v>0.014618965197970714</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.019140334166752562</v>
+        <v>0.019079590659274104</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.02316253296016392</v>
+        <v>0.023096303425005973</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.021990465579548528</v>
+        <v>0.021937567971039729</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.015803902370001555</v>
+        <v>0.015775121639957531</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.0083689937594876133</v>
+        <v>0.0083665620463929963</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.0085600640017790986</v>
+        <v>0.008558556608439934</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.0085969042991332397</v>
+        <v>0.0085767380438930441</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.011610965245889445</v>
+        <v>0.011570832405530035</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.013938268006139445</v>
+        <v>0.013897476073923392</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.013728766859968792</v>
+        <v>0.013694116767598545</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.01241085910167207</v>
+        <v>0.0123946878356124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.022367036981459296</v>
+        <v>0.022288313285699649</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.025694668730644861</v>
+        <v>0.0256082685162589</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.02522418941128771</v>
+        <v>0.025146028176725826</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.020795464365734109</v>
+        <v>0.020738601800736313</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.013014681189369342</v>
+        <v>0.012990567896733659</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.01315047839805396</v>
+        <v>0.0131272825720848</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.0082052952006415672</v>
+        <v>0.0082004357942678466</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.0094417722702819593</v>
+        <v>0.0094198759901055439</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.011545288387372192</v>
+        <v>0.011517768994732799</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.011952197942278177</v>
+        <v>0.011925312660802887</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.011701925597618481</v>
+        <v>0.011686480584515857</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.020770815137325965</v>
+        <v>0.020697524135558996</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.025746525572880749</v>
+        <v>0.025659147051021639</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.026565687157245423</v>
+        <v>0.02648111611681684</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.024317453707943193</v>
+        <v>0.024246363721643589</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.017608970006739805</v>
+        <v>0.017561429987491523</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.017552815460942974</v>
+        <v>0.017505294103448952</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.011304654255841498</v>
+        <v>0.011285360941196995</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.0096358750250359181</v>
+        <v>0.0096235294247987817</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.010107438070825857</v>
+        <v>0.01009217368901081</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.01060615209403897</v>
+        <v>0.010592408795453541</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.011553924116345612</v>
+        <v>0.011544684563197214</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.011045324344448623</v>
+        <v>0.011043723082366263</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.024635715488404399</v>
+        <v>0.024548341849344311</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.025765253478645635</v>
+        <v>0.025680568416499988</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.02372627770218649</v>
+        <v>0.023654755005686708</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.017251696070507326</v>
+        <v>0.017203272230344072</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.01720232835194957</v>
+        <v>0.017153912070149855</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.011101792498289222</v>
+        <v>0.011081679516697531</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.0095331071372656753</v>
+        <v>0.0095198740570234773</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.0099795985238023532</v>
+        <v>0.0099639500833056168</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.010452555638204268</v>
+        <v>0.01043898264669443</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.011332187306129558</v>
+        <v>0.011323454102350373</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.01085479085616793</v>
+        <v>0.010853572734657943</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.022237738403745367</v>
+        <v>0.022169981735908138</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.021742138367763408</v>
+        <v>0.021677502676339295</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.018146425739456636</v>
+        <v>0.018091380429809598</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.018038178783740241</v>
+        <v>0.017983215713020067</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.013141979472299115</v>
+        <v>0.013104775016703639</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.010904905970614972</v>
+        <v>0.010883588712846061</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.010754074024375223</v>
+        <v>0.0107364948763318</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.01148669435939069</v>
+        <v>0.01147029299267284</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.012368254523472859</v>
+        <v>0.012356256358678798</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.010879455012694396</v>
+        <v>0.010874561527107694</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.011179498861083369</v>
+        <v>0.011197885835210178</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.015968391311673241</v>
+        <v>0.015921145091527793</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.015158992979900598</v>
+        <v>0.015108751256415556</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.01514033610917353</v>
+        <v>0.015089915448099726</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.012506328037729771</v>
+        <v>0.012465965006625401</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.011378039505675619</v>
+        <v>0.011345785827327783</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.011327410500341528</v>
+        <v>0.011306087403966261</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.011854280470051711</v>
+        <v>0.01183894296692246</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.012117565838539814</v>
+        <v>0.012106451756118063</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.0068401413996087715</v>
+        <v>0.0068155465024833913</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.0097972618347343023</v>
+        <v>0.0097606686771942973</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.0097145121151950668</v>
+        <v>0.0096778801291601269</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.010042530822685563</v>
+        <v>0.010002525060218781</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.010394531703532829</v>
+        <v>0.010363819317525428</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.010391720768821541</v>
+        <v>0.010375359178889074</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.010245175117758298</v>
+        <v>0.010237225467035921</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.009307821198389795</v>
+        <v>0.0093020792064389003</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.0034044635343303026</v>
+        <v>0.0033861435004096333</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.0033320994040369292</v>
+        <v>0.0033139127225846935</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.0066925331496439757</v>
+        <v>0.0066599110540970187</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.0071702537296814937</v>
+        <v>0.0071449374757442353</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.0073197050992097014</v>
+        <v>0.0073061520358963569</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.0073578687121652366</v>
+        <v>0.0073521171130526853</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.0039784805724943466</v>
+        <v>0.0039636892907977698</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.0046933262194506021</v>
+        <v>0.0046869014802604237</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.00081160097459501254</v>
+        <v>0.00079098000344616332</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.00067908580381606781</v>
+        <v>0.00069503169622332078</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.00088588687860537011</v>
+        <v>0.00092110262014982736</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.0029666413631568292</v>
+        <v>0.0029649807722416416</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.0020372335950736933</v>
+        <v>0.002052890548724505</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.0030485435046367494</v>
+        <v>0.0030719359137801106</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.0040749186806604241</v>
+        <v>0.0041087647308760567</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.0036618367895507944</v>
+        <v>0.0036945986206253496</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.00421353145584096</v>
+        <v>0.0042538123643160522</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.0040888258606821392</v>
+        <v>0.0041021718268671493</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.0048090289822216251</v>
+        <v>0.0048262893860188489</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.0044431164168721397</v>
+        <v>0.0044591762353439002</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.0063184397337850574</v>
+        <v>0.0063298719508413474</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.0063964899371195096</v>
+        <v>0.0064077367775677904</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.0085389955116949717</v>
+        <v>0.008553720251565906</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.0072046268117483877</v>
+        <v>0.007228880025962601</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.0057357598399424871</v>
+        <v>0.0057375462443557653</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.0079054142310277659</v>
+        <v>0.0079091009737082621</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.0086146058994035664</v>
+        <v>0.0086239421077115384</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.0065839456708600939</v>
+        <v>0.0065990741901646608</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.0062164469396195545</v>
+        <v>0.0062144067752291894</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.0061876909122242354</v>
+        <v>0.0061848324632593783</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.0093083584310048838</v>
+        <v>0.009290892464239699</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.011376690281025104</v>
+        <v>0.011361016300527363</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.011724880849089413</v>
+        <v>0.011719124588901062</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.010416839737522002</v>
+        <v>0.010391280603419834</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.012081007482841896</v>
+        <v>0.012057994634369788</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.011611689255910882</v>
+        <v>0.011597716341472776</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.008062574024750007</v>
+        <v>0.0080642351348418108</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.0055149077047651702</v>
+        <v>0.005515499040523752</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.0056414819092608561</v>
+        <v>0.0056420932864442884</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.0085624902685240475</v>
+        <v>0.0085350468379559747</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.012275262910136885</v>
+        <v>0.012230929288775576</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.01475652420333873</v>
+        <v>0.014722358010192366</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.013449265784401011</v>
+        <v>0.013419747555016388</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.013117167011884593</v>
+        <v>0.013054949226512494</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.015031124428866487</v>
+        <v>0.014972981955790752</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.014948124115798775</v>
+        <v>0.014906018599873149</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.011693703980816247</v>
+        <v>0.011670612942452476</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.006851987979120332</v>
+        <v>0.0068509736776447682</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.0074505919311713704</v>
+        <v>0.0074518916665472007</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.0071666031149376754</v>
+        <v>0.0071460154947838739</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.011586830877837477</v>
+        <v>0.011540134883515234</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.014694213100273702</v>
+        <v>0.014649986341949041</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.015045478747434348</v>
+        <v>0.015003196807395</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.012983358985053059</v>
+        <v>0.012952083985811604</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.016159732220608465</v>
+        <v>0.016069573811798698</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.019139920767718196</v>
+        <v>0.019054658794852349</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.019963041342374529</v>
+        <v>0.019891443944775166</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.017765534261883958</v>
+        <v>0.017711391012320703</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.011012346097001875</v>
+        <v>0.010991460206988057</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.011248487250923075</v>
+        <v>0.011228408104040369</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.0067025700513489049</v>
+        <v>0.0066964238743253118</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.00739389330096509</v>
+        <v>0.007369761200634403</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.013155946741318049</v>
+        <v>0.013112250464732514</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.013864663206329701</v>
+        <v>0.013819731531238447</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.012978856430037359</v>
+        <v>0.01294087511622213</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.016422943733445033</v>
+        <v>0.01634683101733022</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.02060831617179449</v>
+        <v>0.020521882322172787</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.02341933764401417</v>
+        <v>0.023335640571906607</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.022774642302827074</v>
+        <v>0.02270287000380802</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.01506955390400031</v>
+        <v>0.015027241984321213</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.014937073331677656</v>
+        <v>0.014894538413834396</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.008044193757877998</v>
+        <v>0.0080318447037700125</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.0095178872382733933</v>
+        <v>0.0094963471806423488</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.011873639196475234</v>
+        <v>0.011837332016675643</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.012864272694971321</v>
+        <v>0.012825428532734372</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.012950982645408567</v>
+        <v>0.012916318669279205</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.012568846606074076</v>
+        <v>0.012546401150069466</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.015241173694960898</v>
+        <v>0.015165455859887699</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.019710002749335792</v>
+        <v>0.01962380382063765</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.022666724452948192</v>
+        <v>0.022583003386092669</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.022165565172581499</v>
+        <v>0.022093252844762136</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.014542124763236998</v>
+        <v>0.014498857100307922</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.014364954259100168</v>
+        <v>0.01432165447138016</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.0078475070635368686</v>
+        <v>0.0078343680674461385</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.0094476568824255515</v>
+        <v>0.0094261966117098819</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.011593235902413478</v>
+        <v>0.011558453404685077</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.012520142389604833</v>
+        <v>0.012483513878369844</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.012652021594399362</v>
+        <v>0.01261927297874129</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.012444522834073008</v>
+        <v>0.01242280015337302</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.014342708505645316</v>
+        <v>0.014299064552255471</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.018845726636212715</v>
+        <v>0.018789833126362707</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.01950779655216649</v>
+        <v>0.019448065363363694</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.014028699838193928</v>
+        <v>0.01398017622454833</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.013911399830582389</v>
+        <v>0.013862837493174096</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.0089839209302744506</v>
+        <v>0.0089637405059885752</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.010041785725061288</v>
+        <v>0.01002684481141879</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.012073879553472951</v>
+        <v>0.012045927923152873</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.013733506912753378</v>
+        <v>0.013698909179556294</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.01426686710778197</v>
+        <v>0.014233702144224437</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.013053066987449791</v>
+        <v>0.013027606917918851</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.0046253959096403275</v>
+        <v>0.004619492736262905</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.01005844795471416</v>
+        <v>0.010038923418817307</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.013035758829196002</v>
+        <v>0.013000516512121016</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.011066221445502008</v>
+        <v>0.011028839627084182</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>0.010968034271611476</v>
+        <v>0.010930689214897227</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>0.0087376336056560894</v>
+        <v>0.0087177080284926416</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>0.010994997385327129</v>
+        <v>0.010981525377108699</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>0.013338057646978504</v>
+        <v>0.01331761131338851</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.014492749343749148</v>
+        <v>0.014463299678959434</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.014294229775728194</v>
+        <v>0.01426553407238019</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>0.011608556913476082</v>
+        <v>0.01158240615384655</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>0.0077707527732905892</v>
+        <v>0.0077517856706781274</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.0018145558476241109</v>
+        <v>0.0018071209548011313</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>0.0042265902690693689</v>
+        <v>0.0042168986688058416</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>0.0059792754873069388</v>
+        <v>0.0059580634828335513</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>0.0058493370452221052</v>
+        <v>0.0058283594656143266</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>0.0068417410366296595</v>
+        <v>0.0068288165237550512</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>0.010239242584516015</v>
+        <v>0.010232681589491539</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.012850969202985162</v>
+        <v>0.012835620432252294</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.013288665679399075</v>
+        <v>0.013272906164761166</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>0.011234415679589511</v>
+        <v>0.011214511353695123</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>0.0081239623917018708</v>
+        <v>0.0081007635490280179</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.012252186834243136</v>
+        <v>0.012225361329531436</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.0051747802020093809</v>
+        <v>0.0051648020193043043</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>0.0013245121414718049</v>
+        <v>0.001319777342048445</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>0.0012809628499971892</v>
+        <v>0.0012766002361915536</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>0.0042557761131809526</v>
+        <v>0.0042442117564042946</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>0.0070158689850347289</v>
+        <v>0.0070075901186817018</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.0091310886442132356</v>
+        <v>0.0091232850773272939</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.00970815371526252</v>
+        <v>0.0096997509738448295</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>0.0078841128904066585</v>
+        <v>0.0078726912292146917</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>0.011211446933716347</v>
+        <v>0.011192520654213832</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.0037623940642320603</v>
+        <v>0.0037573107720174025</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.0038162650837690109</v>
+        <v>0.0038109739028185127</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>0.0016839834593639779</v>
+        <v>0.0016761277176242566</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>0.0049429067900601557</v>
+        <v>0.0049400024706899798</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>0.0065207379808775497</v>
+        <v>0.0065209400304046391</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>0.0055092217042398634</v>
+        <v>0.0055048175829308758</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.0027339449252533712</v>
+        <v>0.0027197191674824496</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.0066030253792832595</v>
+        <v>0.0065889470454085783</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>0.0066411041225741011</v>
+        <v>0.0066269610727917941</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>0.0011928028834993409</v>
+        <v>0.0011918688401990232</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.0024493886623503406</v>
+        <v>0.0024445674146351287</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.0034021871540306134</v>
+        <v>0.0034036600892927687</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>0.0021004453633073111</v>
+        <v>0.0020980395677006438</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>0.0077632133226344224</v>
+        <v>0.0077416352682372859</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>0.0049175969559598406</v>
+        <v>0.0048952433039160864</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>0.0028760562749141497</v>
+        <v>0.0028483995943064068</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.0020386315779654988</v>
+        <v>0.0019991005958687187</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.002492543750766755</v>
+        <v>0.0024521346364354555</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>0.0062327455190106752</v>
+        <v>0.0062274167538272146</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>0.0039746702025536844</v>
+        <v>0.003963537636974661</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.0019733164115324246</v>
+        <v>0.0019576548721903851</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>0.00096231059481985892</v>
+        <v>0.00096770878705645968</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>0.00093138377404384468</v>
+        <v>0.00093035297643941767</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>0.001979801953912572</v>
+        <v>0.0020082091182951176</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>0.0018041680418842726</v>
+        <v>0.0018349583226586856</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>0.0034063356774751471</v>
+        <v>0.0034111100162208209</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.0035455926623670217</v>
+        <v>0.0035474956116156196</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.0026666235997148333</v>
+        <v>0.0026654357361905194</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>0.0016367818724861039</v>
+        <v>0.0016370778094786274</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>0.0015461230349120818</v>
+        <v>0.0015543871452970411</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.0013189114723426152</v>
+        <v>0.001326746243550706</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.0040803849923200172</v>
+        <v>0.0040802340855649304</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>0.0057230848926868557</v>
+        <v>0.0057255449318741975</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>0.005511513656045389</v>
+        <v>0.0055131812135694918</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>0.0018105385080967478</v>
+        <v>0.0017843102844573447</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>0.0011970717628410343</v>
+        <v>0.0011851917942958298</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.0010714596492326226</v>
+        <v>0.0010756238766874559</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.00098049690678819615</v>
+        <v>0.0009817405230912288</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>0.0019182537601498092</v>
+        <v>0.0019218064542799477</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>0.0017807104022376629</v>
+        <v>0.0017846455835374988</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.0042982490035650637</v>
+        <v>0.004283929010036173</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.0081364117385583565</v>
+        <v>0.008113418709873867</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>0.010879062726050815</v>
+        <v>0.010855119208806269</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>0.0016517113403629368</v>
+        <v>0.0015973107808391267</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>0.0013253788682278339</v>
+        <v>0.0012873845507125558</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>0.0021377675530054275</v>
+        <v>0.0021054505723135386</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.002204342891484063</v>
+        <v>0.0021905016687438317</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.0025686439488865555</v>
+        <v>0.0025669944950087436</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>0.0028204592595545207</v>
+        <v>0.0028199485118427939</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>0.0039908909270643259</v>
+        <v>0.0039741044121397208</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.008970823537212352</v>
+        <v>0.0089352158740363414</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.012610056478785658</v>
+        <v>0.012569938763459073</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>0.012849226020212981</v>
+        <v>0.012811060814410217</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>0.0043658756602917466</v>
+        <v>0.0042904698520345045</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>0.0067203746715849147</v>
+        <v>0.0066438181548274643</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>0.0085634403335975249</v>
+        <v>0.0085049551603938161</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.0088189207302408756</v>
+        <v>0.0087801398921893599</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0056931461116531759</v>
+        <v>0.0056806811661691686</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>0.0056806204149493795</v>
+        <v>0.0056684539590943633</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>0.0042957365275751724</v>
+        <v>0.0042821030525129339</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.0093192209901621411</v>
+        <v>0.0092843119048762832</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.012899503668982234</v>
+        <v>0.012855747709160731</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>0.012981448546164547</v>
+        <v>0.012932253370795413</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>0.010482746585622531</v>
+        <v>0.010438425474073473</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>0.0058572502973358058</v>
+        <v>0.0057944592358362152</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>0.010986535843745092</v>
+        <v>0.01091229032320448</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.013903505647820918</v>
+        <v>0.013831842167240723</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.014795793741971446</v>
+        <v>0.014742723581095912</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>0.0089151781144244293</v>
+        <v>0.0088867181319540085</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>0.0086701083280849595</v>
+        <v>0.0086417831256626679</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.0057910324432221567</v>
+        <v>0.0057795503208567843</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.010552746289540414</v>
+        <v>0.010522470228151455</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>0.013376660711665732</v>
+        <v>0.013333803279287059</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>0.013420349569346438</v>
+        <v>0.013368897109289695</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>0.012470199972610554</v>
+        <v>0.012419578598806744</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>0.0048708329855840608</v>
+        <v>0.0048098137256243042</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>0.010018378456814313</v>
+        <v>0.0099447509279426156</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>0.013175334803075785</v>
+        <v>0.013104056299716161</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>0.014033796186291286</v>
+        <v>0.013980860881635403</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>0.008268758549464645</v>
+        <v>0.0082401136378341244</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>0.0079726634814924428</v>
+        <v>0.0079442469076089466</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>0.0057122197669549572</v>
+        <v>0.0057005321741535279</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>0.010387333507604572</v>
+        <v>0.010357771146424777</v>
       </c>
     </row>
     <row r="458">
       <c r="A458">
-        <v>0.013030986591299632</v>
+        <v>0.012989867850532537</v>
       </c>
     </row>
     <row r="459">
       <c r="A459">
-        <v>0.012953952731792995</v>
+        <v>0.012905007834904083</v>
       </c>
     </row>
     <row r="460">
       <c r="A460">
-        <v>0.012249712570386144</v>
+        <v>0.012200866234750056</v>
       </c>
     </row>
     <row r="461">
       <c r="A461">
-        <v>0.012009467584410913</v>
+        <v>0.011966659678987855</v>
       </c>
     </row>
     <row r="462">
       <c r="A462">
-        <v>0.0014453696978820553</v>
+        <v>0.0014516780400830116</v>
       </c>
     </row>
     <row r="463">
       <c r="A463">
-        <v>0.0054481925350860936</v>
+        <v>0.0054202048490044263</v>
       </c>
     </row>
     <row r="464">
       <c r="A464">
-        <v>0.010703108791784677</v>
+        <v>0.010664092077314752</v>
       </c>
     </row>
     <row r="465">
       <c r="A465">
-        <v>0.011881446629953716</v>
+        <v>0.011841146735544863</v>
       </c>
     </row>
     <row r="466">
       <c r="A466">
-        <v>0.0075153118219679557</v>
+        <v>0.0074864225208488714</v>
       </c>
     </row>
     <row r="467">
       <c r="A467">
-        <v>0.0072852157429364938</v>
+        <v>0.0072566566162627416</v>
       </c>
     </row>
     <row r="468">
       <c r="A468">
-        <v>0.0068569570070101419</v>
+        <v>0.0068465570258419133</v>
       </c>
     </row>
     <row r="469">
       <c r="A469">
-        <v>0.012050339584602318</v>
+        <v>0.012027460685460208</v>
       </c>
     </row>
     <row r="470">
       <c r="A470">
-        <v>0.014805199193293685</v>
+        <v>0.014765659974486809</v>
       </c>
     </row>
     <row r="471">
       <c r="A471">
-        <v>0.014864901905611282</v>
+        <v>0.014814673701172783</v>
       </c>
     </row>
     <row r="472">
       <c r="A472">
-        <v>0.013986936070948622</v>
+        <v>0.013932889122331848</v>
       </c>
     </row>
     <row r="473">
       <c r="A473">
-        <v>0.012339098673809284</v>
+        <v>0.012293135686938553</v>
       </c>
     </row>
     <row r="474">
       <c r="A474">
-        <v>0.0041314946649433004</v>
+        <v>0.0041194749798573564</v>
       </c>
     </row>
     <row r="475">
       <c r="A475">
-        <v>0.0023642632734098821</v>
+        <v>0.0023666510765451192</v>
       </c>
     </row>
     <row r="476">
       <c r="A476">
-        <v>0.14823493062450438</v>
+        <v>0.14784221982902804</v>
       </c>
     </row>
     <row r="477">
       <c r="A477">
-        <v>0.0051381415514672076</v>
+        <v>0.0051191058808935392</v>
       </c>
     </row>
     <row r="478">
       <c r="A478">
-        <v>0.0049617160998806581</v>
+        <v>0.0049431027712824489</v>
       </c>
     </row>
     <row r="479">
       <c r="A479">
-        <v>0.0067881994061070967</v>
+        <v>0.0067815465713890744</v>
       </c>
     </row>
     <row r="480">
       <c r="A480">
-        <v>0.011846339999447633</v>
+        <v>0.011827617907784718</v>
       </c>
     </row>
     <row r="481">
       <c r="A481">
-        <v>0.015558489207812545</v>
+        <v>0.015525907514296947</v>
       </c>
     </row>
     <row r="482">
       <c r="A482">
-        <v>0.016032839902206705</v>
+        <v>0.015986538324291588</v>
       </c>
     </row>
     <row r="483">
       <c r="A483">
-        <v>0.014016275702594571</v>
+        <v>0.013968191944114706</v>
       </c>
     </row>
     <row r="484">
       <c r="A484">
-        <v>0.010497030050542417</v>
+        <v>0.010453124057209304</v>
       </c>
     </row>
     <row r="485">
       <c r="A485">
-        <v>0.015782275857794858</v>
+        <v>0.015738674918583329</v>
       </c>
     </row>
     <row r="486">
       <c r="A486">
-        <v>0.0079972833759036164</v>
+        <v>0.0079652909028355874</v>
       </c>
     </row>
     <row r="487">
       <c r="A487">
-        <v>0.0020008970469496241</v>
+        <v>0.0019889371620940943</v>
       </c>
     </row>
     <row r="488">
       <c r="A488">
-        <v>0.0016774641341528974</v>
+        <v>0.0016743912867338703</v>
       </c>
     </row>
     <row r="489">
       <c r="A489">
-        <v>0.001635192038046887</v>
+        <v>0.0016322686163759948</v>
       </c>
     </row>
     <row r="490">
       <c r="A490">
-        <v>0.0049466100641818176</v>
+        <v>0.0049444943080129752</v>
       </c>
     </row>
     <row r="491">
       <c r="A491">
-        <v>0.0098939970299559924</v>
+        <v>0.0098848041512689128</v>
       </c>
     </row>
     <row r="492">
       <c r="A492">
-        <v>0.013606456868781262</v>
+        <v>0.013578814001465751</v>
       </c>
     </row>
     <row r="493">
       <c r="A493">
-        <v>0.014662809645151846</v>
+        <v>0.014633462513934655</v>
       </c>
     </row>
     <row r="494">
       <c r="A494">
-        <v>0.011216585456480644</v>
+        <v>0.011180858784644749</v>
       </c>
     </row>
     <row r="495">
       <c r="A495">
-        <v>0.0065743694046739905</v>
+        <v>0.0065371959930137485</v>
       </c>
     </row>
     <row r="496">
       <c r="A496">
-        <v>0.024083419238886697</v>
+        <v>0.024029196117991408</v>
       </c>
     </row>
     <row r="497">
       <c r="A497">
-        <v>0.016561970459500266</v>
+        <v>0.016517823883556468</v>
       </c>
     </row>
     <row r="498">
       <c r="A498">
-        <v>0.0081539055844828193</v>
+        <v>0.0081252314289631897</v>
       </c>
     </row>
     <row r="499">
       <c r="A499">
-        <v>0.0029207628580591844</v>
+        <v>0.0029172567334212348</v>
       </c>
     </row>
     <row r="500">
       <c r="A500">
-        <v>0.0029482575223171437</v>
+        <v>0.0029446155235170204</v>
       </c>
     </row>
     <row r="501">
       <c r="A501">
-        <v>0.0019350435023103598</v>
+        <v>0.0019297833795852905</v>
       </c>
     </row>
     <row r="502">
       <c r="A502">
-        <v>0.0068963751295445484</v>
+        <v>0.006884360067254962</v>
       </c>
     </row>
     <row r="503">
       <c r="A503">
-        <v>0.0099450637952185391</v>
+        <v>0.009926853932038843</v>
       </c>
     </row>
     <row r="504">
       <c r="A504">
-        <v>0.010771832610375851</v>
+        <v>0.010754665894777268</v>
       </c>
     </row>
     <row r="505">
       <c r="A505">
-        <v>0.0076652609296596142</v>
+        <v>0.0076419343025772128</v>
       </c>
     </row>
     <row r="506">
       <c r="A506">
-        <v>0.0023702606932895632</v>
+        <v>0.0023405350883814527</v>
       </c>
     </row>
     <row r="507">
       <c r="A507">
-        <v>0.020186085675769627</v>
+        <v>0.020134421159840068</v>
       </c>
     </row>
     <row r="508">
       <c r="A508">
-        <v>0.011596945326429041</v>
+        <v>0.0115625932384886</v>
       </c>
     </row>
     <row r="509">
       <c r="A509">
-        <v>0.0060119482039933904</v>
+        <v>0.0060074850026944028</v>
       </c>
     </row>
     <row r="510">
       <c r="A510">
-        <v>0.0059775228311866229</v>
+        <v>0.005972996654636218</v>
       </c>
     </row>
     <row r="511">
       <c r="A511">
-        <v>0.0026032252818958385</v>
+        <v>0.0026118378002949177</v>
       </c>
     </row>
     <row r="512">
       <c r="A512">
-        <v>0.0033764081538603342</v>
+        <v>0.0033665586964788043</v>
       </c>
     </row>
     <row r="513">
       <c r="A513">
-        <v>0.006672928831162825</v>
+        <v>0.0066671433667250786</v>
       </c>
     </row>
     <row r="514">
       <c r="A514">
-        <v>0.0058034441197528236</v>
+        <v>0.0057974698083417429</v>
       </c>
     </row>
     <row r="515">
       <c r="A515">
-        <v>0.002266675793912056</v>
+        <v>0.0022481346805871979</v>
       </c>
     </row>
     <row r="516">
       <c r="A516">
-        <v>0.019633966505683758</v>
+        <v>0.01958257281417871</v>
       </c>
     </row>
     <row r="517">
       <c r="A517">
-        <v>0.0134463220083023</v>
+        <v>0.013409539282260127</v>
       </c>
     </row>
     <row r="518">
       <c r="A518">
-        <v>0.0086950918929381126</v>
+        <v>0.0086947344573312692</v>
       </c>
     </row>
     <row r="519">
       <c r="A519">
-        <v>0.0086280821966412437</v>
+        <v>0.0086275093177563926</v>
       </c>
     </row>
     <row r="520">
       <c r="A520">
-        <v>0.0044551936952436462</v>
+        <v>0.0044671957855732291</v>
       </c>
     </row>
     <row r="521">
       <c r="A521">
-        <v>0.0012809885669354329</v>
+        <v>0.001276576945496996</v>
       </c>
     </row>
     <row r="522">
       <c r="A522">
-        <v>0.0038429225639897389</v>
+        <v>0.0038477412244752236</v>
       </c>
     </row>
     <row r="523">
       <c r="A523">
-        <v>0.0014932712337261847</v>
+        <v>0.0014929606624275735</v>
       </c>
     </row>
     <row r="524">
       <c r="A524">
-        <v>0.014177241664517037</v>
+        <v>0.014125132665437683</v>
       </c>
     </row>
     <row r="525">
       <c r="A525">
-        <v>0.0087049590665096467</v>
+        <v>0.0086914169173864866</v>
       </c>
     </row>
     <row r="526">
       <c r="A526">
-        <v>0.0085983701216887105</v>
+        <v>0.0085834295416010141</v>
       </c>
     </row>
     <row r="527">
       <c r="A527">
-        <v>0.0088217908464855114</v>
+        <v>0.0088074462619379679</v>
       </c>
     </row>
     <row r="528">
       <c r="A528">
-        <v>0.0088028525645239795</v>
+        <v>0.0087879354899157575</v>
       </c>
     </row>
     <row r="529">
       <c r="A529">
-        <v>0.0075544277080038386</v>
+        <v>0.0075177204649771187</v>
       </c>
     </row>
     <row r="530">
       <c r="A530">
-        <v>0.0073053902814555092</v>
+        <v>0.0072500217218346933</v>
       </c>
     </row>
     <row r="531">
       <c r="A531">
-        <v>0.0074687908368043527</v>
+        <v>0.007413728968963253</v>
       </c>
     </row>
     <row r="532">
       <c r="A532">
-        <v>0.0096078158943507415</v>
+        <v>0.0095991192187223334</v>
       </c>
     </row>
     <row r="533">
       <c r="A533">
-        <v>0.0065967022706042546</v>
+        <v>0.0065711998244920022</v>
       </c>
     </row>
     <row r="534">
       <c r="A534">
-        <v>0.005159049594804347</v>
+        <v>0.0051115102247982751</v>
       </c>
     </row>
     <row r="535">
       <c r="A535">
-        <v>0.0057667394567595606</v>
+        <v>0.0057165315244831587</v>
       </c>
     </row>
     <row r="536">
       <c r="A536">
-        <v>0.0059488231272137706</v>
+        <v>0.0058890357831590462</v>
       </c>
     </row>
     <row r="537">
       <c r="A537">
-        <v>0.01145555708853579</v>
+        <v>0.011471172325094202</v>
       </c>
     </row>
     <row r="538">
       <c r="A538">
-        <v>0.0097051583721315619</v>
+        <v>0.0097116547407771654</v>
       </c>
     </row>
     <row r="539">
       <c r="A539">
-        <v>0.006442661088159351</v>
+        <v>0.0064374411218101378</v>
       </c>
     </row>
     <row r="540">
       <c r="A540">
-        <v>0.0039057741027262892</v>
+        <v>0.0038826934775443578</v>
       </c>
     </row>
     <row r="541">
       <c r="A541">
-        <v>0.0041966129926074326</v>
+        <v>0.0041709138111972995</v>
       </c>
     </row>
     <row r="542">
       <c r="A542">
-        <v>0.0037001498646874777</v>
+        <v>0.0036627510759852907</v>
       </c>
     </row>
     <row r="543">
       <c r="A543">
-        <v>0.0024736043033348185</v>
+        <v>0.0024449006697190496</v>
       </c>
     </row>
     <row r="544">
       <c r="A544">
-        <v>0.012636241099069388</v>
+        <v>0.01267971793419983</v>
       </c>
     </row>
     <row r="545">
       <c r="A545">
-        <v>0.012547032687779193</v>
+        <v>0.012575637670680068</v>
       </c>
     </row>
     <row r="546">
       <c r="A546">
-        <v>0.030091158892022664</v>
+        <v>0.029591373494093489</v>
       </c>
     </row>
     <row r="547">
       <c r="A547">
-        <v>0.003684597635040567</v>
+        <v>0.0036844731542156183</v>
       </c>
     </row>
     <row r="548">
       <c r="A548">
-        <v>0.0039254669570356624</v>
+        <v>0.0039229931455317859</v>
       </c>
     </row>
     <row r="549">
       <c r="A549">
-        <v>0.0025337887822250126</v>
+        <v>0.0025148973209950963</v>
       </c>
     </row>
     <row r="550">
       <c r="A550">
-        <v>0.0013273546685800973</v>
+        <v>0.0013346400663675399</v>
       </c>
     </row>
     <row r="551">
       <c r="A551">
-        <v>0.0037923607345527847</v>
+        <v>0.0037943076099609396</v>
       </c>
     </row>
     <row r="552">
       <c r="A552">
-        <v>0.014567506923307581</v>
+        <v>0.014633135474651901</v>
       </c>
     </row>
     <row r="553">
       <c r="A553">
-        <v>0.015735350478668822</v>
+        <v>0.01579269956751338</v>
       </c>
     </row>
     <row r="554">
       <c r="A554">
-        <v>0.014326247466387769</v>
+        <v>0.014367004309525996</v>
       </c>
     </row>
     <row r="555">
       <c r="A555">
-        <v>0.0094123903273735949</v>
+        <v>0.0094339679971497132</v>
       </c>
     </row>
     <row r="556">
       <c r="A556">
-        <v>0.0038076965425047947</v>
+        <v>0.0038180654725311516</v>
       </c>
     </row>
     <row r="557">
       <c r="A557">
-        <v>0.003801545257505565</v>
+        <v>0.0038111518522862035</v>
       </c>
     </row>
     <row r="558">
       <c r="A558">
-        <v>0.002056638556053242</v>
+        <v>0.0020491649052710643</v>
       </c>
     </row>
     <row r="559">
       <c r="A559">
-        <v>0.0024588892238436625</v>
+        <v>0.002455846020875006</v>
       </c>
     </row>
     <row r="560">
       <c r="A560">
-        <v>0.0071341825513692222</v>
+        <v>0.007114381426508146</v>
       </c>
     </row>
     <row r="561">
       <c r="A561">
-        <v>0.012187762235772798</v>
+        <v>0.012248944949743981</v>
       </c>
     </row>
     <row r="562">
       <c r="A562">
-        <v>0.01098838973002726</v>
+        <v>0.01104911963821602</v>
       </c>
     </row>
     <row r="563">
       <c r="A563">
-        <v>0.0093520925991507579</v>
+        <v>0.0093969688652768141</v>
       </c>
     </row>
     <row r="564">
       <c r="A564">
-        <v>0.0050897941950654732</v>
+        <v>0.0051159440063237365</v>
       </c>
     </row>
     <row r="565">
       <c r="A565">
-        <v>0.0020263689781632637</v>
+        <v>0.0020348552493607147</v>
       </c>
     </row>
     <row r="566">
       <c r="A566">
-        <v>0.0021502490336336023</v>
+        <v>0.0021589342779141374</v>
       </c>
     </row>
     <row r="567">
       <c r="A567">
-        <v>0.0013662581752490487</v>
+        <v>0.0013649187824195962</v>
       </c>
     </row>
     <row r="568">
       <c r="A568">
-        <v>0.004472860528790968</v>
+        <v>0.0044553284091219105</v>
       </c>
     </row>
     <row r="569">
       <c r="A569">
-        <v>0.0087272928418436514</v>
+        <v>0.0086984686105973756</v>
       </c>
     </row>
     <row r="570">
       <c r="A570">
-        <v>0.010475177646763501</v>
+        <v>0.010438085139494874</v>
       </c>
     </row>
     <row r="571">
       <c r="A571">
-        <v>0.014921535797507601</v>
+        <v>0.014891486037209058</v>
       </c>
     </row>
     <row r="572">
       <c r="A572">
-        <v>0.0055894069354644549</v>
+        <v>0.0056276932987553837</v>
       </c>
     </row>
     <row r="573">
       <c r="A573">
-        <v>0.0029594493024536618</v>
+        <v>0.0030060133697927889</v>
       </c>
     </row>
     <row r="574">
       <c r="A574">
-        <v>0.0011904889558708861</v>
+        <v>0.0012022020138007774</v>
       </c>
     </row>
     <row r="575">
       <c r="A575">
-        <v>0.0014692422931882455</v>
+        <v>0.0014634786336562371</v>
       </c>
     </row>
     <row r="576">
       <c r="A576">
-        <v>0.0013678228472370632</v>
+        <v>0.0013633214877550974</v>
       </c>
     </row>
     <row r="577">
       <c r="A577">
-        <v>0.0028165013838094394</v>
+        <v>0.0028065634919718185</v>
       </c>
     </row>
     <row r="578">
       <c r="A578">
-        <v>0.0076105987593365699</v>
+        <v>0.0075862793888808377</v>
       </c>
     </row>
     <row r="579">
       <c r="A579">
-        <v>0.011471429937830471</v>
+        <v>0.011434458687214492</v>
       </c>
     </row>
     <row r="580">
       <c r="A580">
-        <v>0.011673755532255047</v>
+        <v>0.011626935391318843</v>
       </c>
     </row>
     <row r="581">
       <c r="A581">
-        <v>0.011437075894518136</v>
+        <v>0.011384905543139062</v>
       </c>
     </row>
     <row r="582">
       <c r="A582">
-        <v>0.014951853509725421</v>
+        <v>0.014927786649829401</v>
       </c>
     </row>
     <row r="583">
       <c r="A583">
-        <v>0.0066817245546155098</v>
+        <v>0.0067186611786712123</v>
       </c>
     </row>
     <row r="584">
       <c r="A584">
-        <v>0.0038632607630386404</v>
+        <v>0.0039097132104333777</v>
       </c>
     </row>
     <row r="585">
       <c r="A585">
-        <v>0.0016599175049565491</v>
+        <v>0.001682227853792795</v>
       </c>
     </row>
     <row r="586">
       <c r="A586">
-        <v>0.0013052172870665275</v>
+        <v>0.0013018523415061333</v>
       </c>
     </row>
     <row r="587">
       <c r="A587">
-        <v>0.0012595957895292643</v>
+        <v>0.0012573913811254939</v>
       </c>
     </row>
     <row r="588">
       <c r="A588">
-        <v>0.0025835550354477519</v>
+        <v>0.0025739430601607045</v>
       </c>
     </row>
     <row r="589">
       <c r="A589">
-        <v>0.0073956858819059874</v>
+        <v>0.0073719641711056322</v>
       </c>
     </row>
     <row r="590">
       <c r="A590">
-        <v>0.01102009655607665</v>
+        <v>0.010984466725239103</v>
       </c>
     </row>
     <row r="591">
       <c r="A591">
-        <v>0.01128214698321311</v>
+        <v>0.011236839680708306</v>
       </c>
     </row>
     <row r="592">
       <c r="A592">
-        <v>0.011354843058628926</v>
+        <v>0.011303252214687821</v>
       </c>
     </row>
     <row r="593">
       <c r="A593">
-        <v>0.013745668682530063</v>
+        <v>0.013741824156720317</v>
       </c>
     </row>
     <row r="594">
       <c r="A594">
-        <v>0.0097107333263415363</v>
+        <v>0.0097100864641694474</v>
       </c>
     </row>
     <row r="595">
       <c r="A595">
-        <v>0.0043701991747173491</v>
+        <v>0.004386564440665609</v>
       </c>
     </row>
     <row r="596">
       <c r="A596">
-        <v>0.050031560653804298</v>
+        <v>0.050028310247612472</v>
       </c>
     </row>
     <row r="597">
       <c r="A597">
-        <v>0.0014004804776070029</v>
+        <v>0.0013969406937680737</v>
       </c>
     </row>
     <row r="598">
       <c r="A598">
-        <v>0.0013654732764092001</v>
+        <v>0.0013620678072360295</v>
       </c>
     </row>
     <row r="599">
       <c r="A599">
-        <v>0.0036095511882682672</v>
+        <v>0.0036009673095400499</v>
       </c>
     </row>
     <row r="600">
       <c r="A600">
-        <v>0.0088967708006730244</v>
+        <v>0.0088728438353603487</v>
       </c>
     </row>
     <row r="601">
       <c r="A601">
-        <v>0.0127293754399679</v>
+        <v>0.012689220809885222</v>
       </c>
     </row>
     <row r="602">
       <c r="A602">
-        <v>0.011237577295181793</v>
+        <v>0.011184466785185461</v>
       </c>
     </row>
     <row r="603">
       <c r="A603">
-        <v>0.010432193038185779</v>
+        <v>0.010374164336382989</v>
       </c>
     </row>
     <row r="604">
       <c r="A604">
-        <v>0.020567932165696967</v>
+        <v>0.020523278391892691</v>
       </c>
     </row>
     <row r="605">
       <c r="A605">
-        <v>0.016573372382525708</v>
+        <v>0.016539390031964644</v>
       </c>
     </row>
     <row r="606">
       <c r="A606">
-        <v>0.0096537240674967155</v>
+        <v>0.0096327108237049854</v>
       </c>
     </row>
     <row r="607">
       <c r="A607">
-        <v>0.0036093639618864086</v>
+        <v>0.0035948681963618107</v>
       </c>
     </row>
     <row r="608">
       <c r="A608">
-        <v>0.0012444169033228858</v>
+        <v>0.0012433055079850413</v>
       </c>
     </row>
     <row r="609">
       <c r="A609">
-        <v>0.0012196704585203072</v>
+        <v>0.0012182726969541999</v>
       </c>
     </row>
     <row r="610">
       <c r="A610">
-        <v>0.0031011537030970109</v>
+        <v>0.0030947058143202745</v>
       </c>
     </row>
     <row r="611">
       <c r="A611">
-        <v>0.0070119988301788633</v>
+        <v>0.0069891863424077398</v>
       </c>
     </row>
     <row r="612">
       <c r="A612">
-        <v>0.0120467005428665</v>
+        <v>0.012010282455386413</v>
       </c>
     </row>
     <row r="613">
       <c r="A613">
-        <v>0.012499305335826584</v>
+        <v>0.012448195820284469</v>
       </c>
     </row>
     <row r="614">
       <c r="A614">
-        <v>0.011488342301264474</v>
+        <v>0.011430894572811569</v>
       </c>
     </row>
     <row r="615">
       <c r="A615">
-        <v>0.02908231386786736</v>
+        <v>0.029009771389493975</v>
       </c>
     </row>
     <row r="616">
       <c r="A616">
-        <v>0.02395909702369085</v>
+        <v>0.023894402914427817</v>
       </c>
     </row>
     <row r="617">
       <c r="A617">
-        <v>0.015233553791302428</v>
+        <v>0.015181441515365027</v>
       </c>
     </row>
     <row r="618">
       <c r="A618">
-        <v>0.0068728749912150043</v>
+        <v>0.0068390506845482472</v>
       </c>
     </row>
     <row r="619">
       <c r="A619">
-        <v>0.0035616117755612347</v>
+        <v>0.0035605725786222548</v>
       </c>
     </row>
     <row r="620">
       <c r="A620">
-        <v>0.0035368533479929569</v>
+        <v>0.003535622656854301</v>
       </c>
     </row>
     <row r="621">
       <c r="A621">
-        <v>0.0013195168436270408</v>
+        <v>0.0013212262858054134</v>
       </c>
     </row>
     <row r="622">
       <c r="A622">
-        <v>0.0052520830537280908</v>
+        <v>0.0052349058153078947</v>
       </c>
     </row>
     <row r="623">
       <c r="A623">
-        <v>0.0089623998096999696</v>
+        <v>0.0089288692905828641</v>
       </c>
     </row>
     <row r="624">
       <c r="A624">
-        <v>0.011397385521994329</v>
+        <v>0.011354503895695816</v>
       </c>
     </row>
     <row r="625">
       <c r="A625">
-        <v>0.0095748215831582724</v>
+        <v>0.0095303070835381833</v>
       </c>
     </row>
     <row r="626">
       <c r="A626">
-        <v>0.025918809056179683</v>
+        <v>0.025853397541473699</v>
       </c>
     </row>
     <row r="627">
       <c r="A627">
-        <v>0.017314254777166308</v>
+        <v>0.017258290846506968</v>
       </c>
     </row>
     <row r="628">
       <c r="A628">
-        <v>0.0091101905965902258</v>
+        <v>0.0090791050453104816</v>
       </c>
     </row>
     <row r="629">
       <c r="A629">
-        <v>0.0083278508145966657</v>
+        <v>0.0083342896684312166</v>
       </c>
     </row>
     <row r="630">
       <c r="A630">
-        <v>0.0083696284771693202</v>
+        <v>0.0083761006135672743</v>
       </c>
     </row>
     <row r="631">
       <c r="A631">
-        <v>0.0057096021460105251</v>
+        <v>0.0057176779759467045</v>
       </c>
     </row>
     <row r="632">
       <c r="A632">
-        <v>0.0010987720538241125</v>
+        <v>0.0010927912282603285</v>
       </c>
     </row>
     <row r="633">
       <c r="A633">
-        <v>0.0053069758935763963</v>
+        <v>0.0052820886338150177</v>
       </c>
     </row>
     <row r="634">
       <c r="A634">
-        <v>0.005994113571390367</v>
+        <v>0.0059665689147925969</v>
       </c>
     </row>
     <row r="635">
       <c r="A635">
-        <v>0.0047283222018389597</v>
+        <v>0.0046964989060638484</v>
       </c>
     </row>
     <row r="636">
       <c r="A636">
-        <v>0.023472631225722122</v>
+        <v>0.023417737441822944</v>
       </c>
     </row>
     <row r="637">
       <c r="A637">
-        <v>0.017069421256031888</v>
+        <v>0.017019228766853283</v>
       </c>
     </row>
     <row r="638">
       <c r="A638">
-        <v>0.011316016549873428</v>
+        <v>0.011302003017931937</v>
       </c>
     </row>
     <row r="639">
       <c r="A639">
-        <v>0.012732045743122861</v>
+        <v>0.012746323868250489</v>
       </c>
     </row>
     <row r="640">
       <c r="A640">
-        <v>0.012740475017414285</v>
+        <v>0.012754645641612635</v>
       </c>
     </row>
     <row r="641">
       <c r="A641">
-        <v>0.010404856126199218</v>
+        <v>0.010419479254018579</v>
       </c>
     </row>
     <row r="642">
       <c r="A642">
-        <v>0.0029079856869908159</v>
+        <v>0.0029176300872646543</v>
       </c>
     </row>
     <row r="643">
       <c r="A643">
-        <v>0.0018785581481494599</v>
+        <v>0.001867697529969172</v>
       </c>
     </row>
     <row r="644">
       <c r="A644">
-        <v>0.0023236826973178451</v>
+        <v>0.00230873869655918</v>
       </c>
     </row>
     <row r="645">
       <c r="A645">
-        <v>0.00089398214980073191</v>
+        <v>0.00088686687068748298</v>
       </c>
     </row>
     <row r="646">
       <c r="A646">
-        <v>0.020733666573786762</v>
+        <v>0.020682948710348495</v>
       </c>
     </row>
     <row r="647">
       <c r="A647">
-        <v>0.016311819130296168</v>
+        <v>0.016267511668035303</v>
       </c>
     </row>
     <row r="648">
       <c r="A648">
-        <v>0.013738341621091443</v>
+        <v>0.013728834892524884</v>
       </c>
     </row>
     <row r="649">
       <c r="A649">
-        <v>0.015312204252038761</v>
+        <v>0.015337448917374281</v>
       </c>
     </row>
     <row r="650">
       <c r="A650">
-        <v>0.015115369020160037</v>
+        <v>0.015139854345618353</v>
       </c>
     </row>
     <row r="651">
       <c r="A651">
-        <v>0.01309628824471654</v>
+        <v>0.013115723246320817</v>
       </c>
     </row>
     <row r="652">
       <c r="A652">
-        <v>0.0064942576923798997</v>
+        <v>0.0065026118164788664</v>
       </c>
     </row>
     <row r="653">
       <c r="A653">
-        <v>0.0021947160122088518</v>
+        <v>0.0021919496653295756</v>
       </c>
     </row>
     <row r="654">
       <c r="A654">
-        <v>0.0022755637366548573</v>
+        <v>0.0022776988770816936</v>
       </c>
     </row>
     <row r="655">
       <c r="A655">
-        <v>0.015894415194097438</v>
+        <v>0.015847272674776824</v>
       </c>
     </row>
     <row r="656">
       <c r="A656">
-        <v>0.014012726349509362</v>
+        <v>0.014009822897680055</v>
       </c>
     </row>
     <row r="657">
       <c r="A657">
-        <v>0.013797351409617086</v>
+        <v>0.013823069822721896</v>
       </c>
     </row>
     <row r="658">
       <c r="A658">
-        <v>0.013366661265194802</v>
+        <v>0.013390155026425397</v>
       </c>
     </row>
     <row r="659">
       <c r="A659">
-        <v>0.011173991781698504</v>
+        <v>0.011190459525952108</v>
       </c>
     </row>
     <row r="660">
       <c r="A660">
-        <v>0.0073840175580974872</v>
+        <v>0.007386312662157681</v>
       </c>
     </row>
     <row r="661">
       <c r="A661">
-        <v>0.016223085692453346</v>
+        <v>0.016174160769277732</v>
       </c>
     </row>
     <row r="662">
       <c r="A662">
-        <v>0.013951442548490194</v>
+        <v>0.013944993808910087</v>
       </c>
     </row>
     <row r="663">
       <c r="A663">
-        <v>0.012849767583106141</v>
+        <v>0.012870063157928378</v>
       </c>
     </row>
     <row r="664">
       <c r="A664">
-        <v>0.013002878732720959</v>
+        <v>0.013024326123049587</v>
       </c>
     </row>
     <row r="665">
       <c r="A665">
-        <v>0.011683278740685388</v>
+        <v>0.011701035370430211</v>
       </c>
     </row>
     <row r="666">
       <c r="A666">
-        <v>0.0074847619773994638</v>
+        <v>0.0074868823883034018</v>
       </c>
     </row>
     <row r="667">
       <c r="A667">
-        <v>0.0079843635240961237</v>
+        <v>0.0079352520484018939</v>
       </c>
     </row>
     <row r="668">
       <c r="A668">
-        <v>0.0084087254557098402</v>
+        <v>0.0083552161566281882</v>
       </c>
     </row>
     <row r="669">
       <c r="A669">
-        <v>0.018719517365792908</v>
+        <v>0.018763470771836929</v>
       </c>
     </row>
     <row r="670">
       <c r="A670">
-        <v>0.013376923407585627</v>
+        <v>0.013398528349513359</v>
       </c>
     </row>
     <row r="671">
       <c r="A671">
-        <v>0.0085601695565760503</v>
+        <v>0.0085354682727707774</v>
       </c>
     </row>
     <row r="672">
       <c r="A672">
-        <v>0.0087734632514666969</v>
+        <v>0.0087441232136772525</v>
       </c>
     </row>
     <row r="673">
       <c r="A673">
-        <v>0.0083110139089749777</v>
+        <v>0.0082534448080040009</v>
       </c>
     </row>
     <row r="674">
       <c r="A674">
-        <v>0.02799416303090161</v>
+        <v>0.028059506606811585</v>
       </c>
     </row>
     <row r="675">
       <c r="A675">
-        <v>0.023601300781655205</v>
+        <v>0.023649815639160687</v>
       </c>
     </row>
     <row r="676">
       <c r="A676">
-        <v>0.015081080731224524</v>
+        <v>0.015118333347681603</v>
       </c>
     </row>
     <row r="677">
       <c r="A677">
-        <v>0.0076720802903685568</v>
+        <v>0.0076663724606626559</v>
       </c>
     </row>
     <row r="678">
       <c r="A678">
-        <v>0.0078553189249944352</v>
+        <v>0.0078455739684825665</v>
       </c>
     </row>
     <row r="679">
       <c r="A679">
-        <v>0.0088511690491616113</v>
+        <v>0.0088064703253155352</v>
       </c>
     </row>
     <row r="680">
       <c r="A680">
-        <v>0.0071175522188780677</v>
+        <v>0.0070844707516807739</v>
       </c>
     </row>
     <row r="681">
       <c r="A681">
-        <v>0.0013066607939960747</v>
+        <v>0.0013028117269609681</v>
       </c>
     </row>
     <row r="682">
       <c r="A682">
-        <v>0.027816074891776735</v>
+        <v>0.027855692774846934</v>
       </c>
     </row>
     <row r="683">
       <c r="A683">
-        <v>0.02850306624254734</v>
+        <v>0.028549234412616531</v>
       </c>
     </row>
     <row r="684">
       <c r="A684">
-        <v>0.024641213177666463</v>
+        <v>0.024682790938911611</v>
       </c>
     </row>
     <row r="685">
       <c r="A685">
-        <v>0.015186048533571144</v>
+        <v>0.015211173380467466</v>
       </c>
     </row>
     <row r="686">
       <c r="A686">
-        <v>0.0064025675630641132</v>
+        <v>0.006404415202917799</v>
       </c>
     </row>
     <row r="687">
       <c r="A687">
-        <v>0.0065333447484518673</v>
+        <v>0.0065341003032655743</v>
       </c>
     </row>
     <row r="688">
       <c r="A688">
-        <v>0.0083745311382128068</v>
+        <v>0.0083553041907472713</v>
       </c>
     </row>
     <row r="689">
       <c r="A689">
-        <v>0.0053614815658960023</v>
+        <v>0.0053524525706313423</v>
       </c>
     </row>
     <row r="690">
       <c r="A690">
-        <v>0.0014225100792614243</v>
+        <v>0.0014167643917914446</v>
       </c>
     </row>
     <row r="691">
       <c r="A691">
-        <v>0.026497352426740485</v>
+        <v>0.02650690542720268</v>
       </c>
     </row>
     <row r="692">
       <c r="A692">
-        <v>0.02479362560739257</v>
+        <v>0.024809337327417479</v>
       </c>
     </row>
     <row r="693">
       <c r="A693">
-        <v>0.022587004927680444</v>
+        <v>0.022605496973225926</v>
       </c>
     </row>
     <row r="694">
       <c r="A694">
-        <v>0.012917478284149235</v>
+        <v>0.012921278216413777</v>
       </c>
     </row>
     <row r="695">
       <c r="A695">
-        <v>0.0052439645863652049</v>
+        <v>0.0052465132907117433</v>
       </c>
     </row>
     <row r="696">
       <c r="A696">
-        <v>0.0053835397674086927</v>
+        <v>0.0053862336814264836</v>
       </c>
     </row>
     <row r="697">
       <c r="A697">
-        <v>0.0065231479953702654</v>
+        <v>0.0065240244462928827</v>
       </c>
     </row>
     <row r="698">
       <c r="A698">
-        <v>0.0026518611278016318</v>
+        <v>0.0026611990032715865</v>
       </c>
     </row>
     <row r="699">
       <c r="A699">
-        <v>0.0035499310697019062</v>
+        <v>0.0035283011883813563</v>
       </c>
     </row>
     <row r="700">
       <c r="A700">
-        <v>0.0067960967024257588</v>
+        <v>0.0067625317065316253</v>
       </c>
     </row>
     <row r="701">
       <c r="A701">
-        <v>0.027462494798590496</v>
+        <v>0.027469445705185905</v>
       </c>
     </row>
     <row r="702">
       <c r="A702">
-        <v>0.025857041187495041</v>
+        <v>0.025870172364545876</v>
       </c>
     </row>
     <row r="703">
       <c r="A703">
-        <v>0.023369574451583414</v>
+        <v>0.023385716150830575</v>
       </c>
     </row>
     <row r="704">
       <c r="A704">
-        <v>0.013319419399241587</v>
+        <v>0.013321515001536114</v>
       </c>
     </row>
     <row r="705">
       <c r="A705">
-        <v>0.0054779363737769479</v>
+        <v>0.0054806235185261912</v>
       </c>
     </row>
     <row r="706">
       <c r="A706">
-        <v>0.0054985388592109479</v>
+        <v>0.0055013209063254605</v>
       </c>
     </row>
     <row r="707">
       <c r="A707">
-        <v>0.0067177886323483808</v>
+        <v>0.0067184935020109448</v>
       </c>
     </row>
     <row r="708">
       <c r="A708">
-        <v>0.0028039991990725724</v>
+        <v>0.0028132189968705472</v>
       </c>
     </row>
     <row r="709">
       <c r="A709">
-        <v>0.0031631533539435573</v>
+        <v>0.003142141417375976</v>
       </c>
     </row>
     <row r="710">
       <c r="A710">
-        <v>0.0063176731718902644</v>
+        <v>0.006284973370155514</v>
       </c>
     </row>
     <row r="711">
       <c r="A711">
-        <v>0.027602668667905752</v>
+        <v>0.027571202715281747</v>
       </c>
     </row>
     <row r="712">
       <c r="A712">
-        <v>0.026441647538250887</v>
+        <v>0.026408976122669441</v>
       </c>
     </row>
     <row r="713">
       <c r="A713">
-        <v>0.021636863216313543</v>
+        <v>0.021626719429698883</v>
       </c>
     </row>
     <row r="714">
       <c r="A714">
-        <v>0.010903524443531359</v>
+        <v>0.010887998827995833</v>
       </c>
     </row>
     <row r="715">
       <c r="A715">
-        <v>0.0054641935056546674</v>
+        <v>0.0054667741436710921</v>
       </c>
     </row>
     <row r="716">
       <c r="A716">
-        <v>0.005424541893570097</v>
+        <v>0.005427068472612471</v>
       </c>
     </row>
     <row r="717">
       <c r="A717">
-        <v>0.0055736511556532522</v>
+        <v>0.0055814019779913708</v>
       </c>
     </row>
     <row r="718">
       <c r="A718">
-        <v>0.0012024777537658952</v>
+        <v>0.00121070471956167</v>
       </c>
     </row>
     <row r="719">
       <c r="A719">
-        <v>0.0046005424657895311</v>
+        <v>0.0045712534666936758</v>
       </c>
     </row>
     <row r="720">
       <c r="A720">
-        <v>0.0072559717506202942</v>
+        <v>0.007214064681979741</v>
       </c>
     </row>
     <row r="721">
       <c r="A721">
-        <v>0.0069916914878456202</v>
+        <v>0.0069402629096239786</v>
       </c>
     </row>
     <row r="722">
       <c r="A722">
-        <v>0.029550330471273492</v>
+        <v>0.029487661317705118</v>
       </c>
     </row>
     <row r="723">
       <c r="A723">
-        <v>0.028417650541535222</v>
+        <v>0.028347242259350543</v>
       </c>
     </row>
     <row r="724">
       <c r="A724">
-        <v>0.020031161371000614</v>
+        <v>0.019981856245125423</v>
       </c>
     </row>
     <row r="725">
       <c r="A725">
-        <v>0.0095373497587334551</v>
+        <v>0.0094989139798202261</v>
       </c>
     </row>
     <row r="726">
       <c r="A726">
-        <v>0.0072672790377494691</v>
+        <v>0.0072720684645033642</v>
       </c>
     </row>
     <row r="727">
       <c r="A727">
-        <v>0.0072893113596066185</v>
+        <v>0.0072941635442913596</v>
       </c>
     </row>
     <row r="728">
       <c r="A728">
-        <v>0.006936966108594865</v>
+        <v>0.0069455799686543532</v>
       </c>
     </row>
     <row r="729">
       <c r="A729">
-        <v>0.0017333848245372234</v>
+        <v>0.0017473007785951322</v>
       </c>
     </row>
     <row r="730">
       <c r="A730">
-        <v>0.0039691895410170928</v>
+        <v>0.0039398730815025174</v>
       </c>
     </row>
     <row r="731">
       <c r="A731">
-        <v>0.0067701170830888934</v>
+        <v>0.0067257397960534719</v>
       </c>
     </row>
     <row r="732">
       <c r="A732">
-        <v>0.0077456713178231862</v>
+        <v>0.0076917049253813971</v>
       </c>
     </row>
     <row r="733">
       <c r="A733">
-        <v>0.032981612978228082</v>
+        <v>0.032900090716597524</v>
       </c>
     </row>
     <row r="734">
       <c r="A734">
-        <v>0.029031601149672584</v>
+        <v>0.028951809689692163</v>
       </c>
     </row>
     <row r="735">
       <c r="A735">
-        <v>0.019077151719344584</v>
+        <v>0.019013545904122981</v>
       </c>
     </row>
     <row r="736">
       <c r="A736">
-        <v>0.0094169146285234557</v>
+        <v>0.0093890174839240843</v>
       </c>
     </row>
     <row r="737">
       <c r="A737">
-        <v>0.011734958011749338</v>
+        <v>0.011745647544277074</v>
       </c>
     </row>
     <row r="738">
       <c r="A738">
-        <v>0.011761179974354363</v>
+        <v>0.011771869672955229</v>
       </c>
     </row>
     <row r="739">
       <c r="A739">
-        <v>0.011565276943856145</v>
+        <v>0.011573610629989616</v>
       </c>
     </row>
     <row r="740">
       <c r="A740">
-        <v>0.0054393393982421802</v>
+        <v>0.005453715771427765</v>
       </c>
     </row>
     <row r="741">
       <c r="A741">
-        <v>0.00098185862698675803</v>
+        <v>0.00097637924058113291</v>
       </c>
     </row>
     <row r="742">
       <c r="A742">
-        <v>0.0040055867714741686</v>
+        <v>0.0039698565741658415</v>
       </c>
     </row>
     <row r="743">
       <c r="A743">
-        <v>0.0055062271404514116</v>
+        <v>0.005460896273129714</v>
       </c>
     </row>
     <row r="744">
       <c r="A744">
-        <v>0.030070454956431909</v>
+        <v>0.030002227859837211</v>
       </c>
     </row>
     <row r="745">
       <c r="A745">
-        <v>0.025339418435295101</v>
+        <v>0.025275207223749981</v>
       </c>
     </row>
     <row r="746">
       <c r="A746">
-        <v>0.016886205159692677</v>
+        <v>0.016838637540645747</v>
       </c>
     </row>
     <row r="747">
       <c r="A747">
-        <v>0.011479077097472111</v>
+        <v>0.011471560220276742</v>
       </c>
     </row>
     <row r="748">
       <c r="A748">
-        <v>0.016432054872663832</v>
+        <v>0.016444600065449996</v>
       </c>
     </row>
     <row r="749">
       <c r="A749">
-        <v>0.016525050032662469</v>
+        <v>0.016537694610341016</v>
       </c>
     </row>
     <row r="750">
       <c r="A750">
-        <v>0.016304161388768459</v>
+        <v>0.016310130543267711</v>
       </c>
     </row>
     <row r="751">
       <c r="A751">
-        <v>0.00986012142085246</v>
+        <v>0.009869163675190919</v>
       </c>
     </row>
     <row r="752">
       <c r="A752">
-        <v>0.0038016775671312749</v>
+        <v>0.0038177958174279349</v>
       </c>
     </row>
     <row r="753">
       <c r="A753">
-        <v>0.0010224815864151348</v>
+        <v>0.0010241244079272809</v>
       </c>
     </row>
     <row r="754">
       <c r="A754">
-        <v>0.0010377865990673055</v>
+        <v>0.0010476798206077687</v>
       </c>
     </row>
     <row r="755">
       <c r="A755">
-        <v>0.024590920000751439</v>
+        <v>0.024546285685646176</v>
       </c>
     </row>
     <row r="756">
       <c r="A756">
-        <v>0.021814444098071362</v>
+        <v>0.021765089710398252</v>
       </c>
     </row>
     <row r="757">
       <c r="A757">
-        <v>0.015729792652436011</v>
+        <v>0.015692702662764537</v>
       </c>
     </row>
     <row r="758">
       <c r="A758">
-        <v>0.013998804808048493</v>
+        <v>0.013999684102861842</v>
       </c>
     </row>
     <row r="759">
       <c r="A759">
-        <v>0.019386422311480002</v>
+        <v>0.019399258440791933</v>
       </c>
     </row>
     <row r="760">
       <c r="A760">
-        <v>0.019580424874735016</v>
+        <v>0.019593486942998502</v>
       </c>
     </row>
     <row r="761">
       <c r="A761">
-        <v>0.019451487262142079</v>
+        <v>0.01945617994500062</v>
       </c>
     </row>
     <row r="762">
       <c r="A762">
-        <v>0.012481601553278343</v>
+        <v>0.012483973442531625</v>
       </c>
     </row>
     <row r="763">
       <c r="A763">
-        <v>0.0065907057603510474</v>
+        <v>0.0065930786953285313</v>
       </c>
     </row>
     <row r="764">
       <c r="A764">
-        <v>0.0034343668211538263</v>
+        <v>0.0034438178359574158</v>
       </c>
     </row>
     <row r="765">
       <c r="A765">
-        <v>0.0035567268027063034</v>
+        <v>0.0035761562201398972</v>
       </c>
     </row>
     <row r="766">
       <c r="A766">
-        <v>0.020783330873244681</v>
+        <v>0.020750878011384904</v>
       </c>
     </row>
     <row r="767">
       <c r="A767">
-        <v>0.018976061267134438</v>
+        <v>0.018933870862574469</v>
       </c>
     </row>
     <row r="768">
       <c r="A768">
-        <v>0.01549791494176617</v>
+        <v>0.015468622499101217</v>
       </c>
     </row>
     <row r="769">
       <c r="A769">
-        <v>0.016390351321830254</v>
+        <v>0.016398131480827818</v>
       </c>
     </row>
     <row r="770">
       <c r="A770">
-        <v>0.020325764028894893</v>
+        <v>0.020344769958063596</v>
       </c>
     </row>
     <row r="771">
       <c r="A771">
-        <v>0.020419972194046759</v>
+        <v>0.020438976688425391</v>
       </c>
     </row>
     <row r="772">
       <c r="A772">
-        <v>0.020132786139166001</v>
+        <v>0.020144366985986845</v>
       </c>
     </row>
     <row r="773">
       <c r="A773">
-        <v>0.014831580772685437</v>
+        <v>0.014832616107398095</v>
       </c>
     </row>
     <row r="774">
       <c r="A774">
-        <v>0.0092437917872111378</v>
+        <v>0.00924014242774647</v>
       </c>
     </row>
     <row r="775">
       <c r="A775">
-        <v>0.0070311241455151387</v>
+        <v>0.0070293794986292105</v>
       </c>
     </row>
     <row r="776">
       <c r="A776">
-        <v>0.017720587830201133</v>
+        <v>0.017680432433003303</v>
       </c>
     </row>
     <row r="777">
       <c r="A777">
-        <v>0.01561904275116586</v>
+        <v>0.015600679846715369</v>
       </c>
     </row>
     <row r="778">
       <c r="A778">
-        <v>0.017130716106906623</v>
+        <v>0.017148519030779238</v>
       </c>
     </row>
     <row r="779">
       <c r="A779">
-        <v>0.01813411713754556</v>
+        <v>0.018149574948537934</v>
       </c>
     </row>
     <row r="780">
       <c r="A780">
-        <v>0.014394604033688576</v>
+        <v>0.014395094207050617</v>
       </c>
     </row>
     <row r="781">
       <c r="A781">
-        <v>0.018059903914066641</v>
+        <v>0.018018231482245732</v>
       </c>
     </row>
     <row r="782">
       <c r="A782">
-        <v>0.015584424755591906</v>
+        <v>0.015562047181494766</v>
       </c>
     </row>
     <row r="783">
       <c r="A783">
-        <v>0.015429958455472572</v>
+        <v>0.015435380542784746</v>
       </c>
     </row>
     <row r="784">
       <c r="A784">
-        <v>0.017808060915893306</v>
+        <v>0.017822875639767539</v>
       </c>
     </row>
     <row r="785">
       <c r="A785">
-        <v>0.013732168921305365</v>
+        <v>0.013731362083489932</v>
       </c>
     </row>
     <row r="786">
       <c r="A786">
-        <v>0.015533703140679481</v>
+        <v>0.015568008822189689</v>
       </c>
     </row>
     <row r="787">
       <c r="A787">
-        <v>0.014389078259702773</v>
+        <v>0.014381662382314003</v>
       </c>
     </row>
     <row r="788">
       <c r="A788">
-        <v>0.013790212153166758</v>
+        <v>0.013719896552126042</v>
       </c>
     </row>
     <row r="789">
       <c r="A789">
-        <v>0.013717538857887217</v>
+        <v>0.013647459112350421</v>
       </c>
     </row>
     <row r="790">
       <c r="A790">
-        <v>0.03242902045437468</v>
+        <v>0.032467826423260897</v>
       </c>
     </row>
     <row r="791">
       <c r="A791">
-        <v>0.025327714832570708</v>
+        <v>0.025371596883559028</v>
       </c>
     </row>
     <row r="792">
       <c r="A792">
-        <v>0.014942004635369573</v>
+        <v>0.014953838748271775</v>
       </c>
     </row>
     <row r="793">
       <c r="A793">
-        <v>0.014442573300430608</v>
+        <v>0.014394697133753935</v>
       </c>
     </row>
     <row r="794">
       <c r="A794">
-        <v>0.014631396355896071</v>
+        <v>0.014583901479279279</v>
       </c>
     </row>
     <row r="795">
       <c r="A795">
-        <v>0.018405549364953918</v>
+        <v>0.018356420834047298</v>
       </c>
     </row>
     <row r="796">
       <c r="A796">
-        <v>0.015933580010917547</v>
+        <v>0.015900905165032109</v>
       </c>
     </row>
     <row r="797">
       <c r="A797">
-        <v>0.035953689142615319</v>
+        <v>0.03594747092496374</v>
       </c>
     </row>
     <row r="798">
       <c r="A798">
-        <v>0.036218619269107445</v>
+        <v>0.03621839780885084</v>
       </c>
     </row>
     <row r="799">
       <c r="A799">
-        <v>0.028369060382391287</v>
+        <v>0.028382945407387197</v>
       </c>
     </row>
     <row r="800">
       <c r="A800">
-        <v>0.014595393648568203</v>
+        <v>0.014603608734435005</v>
       </c>
     </row>
     <row r="801">
       <c r="A801">
-        <v>0.014651136025438679</v>
+        <v>0.01462948616963586</v>
       </c>
     </row>
     <row r="802">
       <c r="A802">
-        <v>0.014857361307916409</v>
+        <v>0.014836314737655515</v>
       </c>
     </row>
     <row r="803">
       <c r="A803">
-        <v>0.019388275988070004</v>
+        <v>0.019371153741067289</v>
       </c>
     </row>
     <row r="804">
       <c r="A804">
-        <v>0.014875287613862535</v>
+        <v>0.014869959746452791</v>
       </c>
     </row>
     <row r="805">
       <c r="A805">
-        <v>0.006394314958460756</v>
+        <v>0.0064036177836695749</v>
       </c>
     </row>
     <row r="806">
       <c r="A806">
-        <v>0.036234552671263513</v>
+        <v>0.036227787149634552</v>
       </c>
     </row>
     <row r="807">
       <c r="A807">
-        <v>0.036409595976311236</v>
+        <v>0.036409152476977569</v>
       </c>
     </row>
     <row r="808">
       <c r="A808">
-        <v>0.028518607182515192</v>
+        <v>0.028532278325125903</v>
       </c>
     </row>
     <row r="809">
       <c r="A809">
-        <v>0.014697668161071016</v>
+        <v>0.014705831880899854</v>
       </c>
     </row>
     <row r="810">
       <c r="A810">
-        <v>0.014673641015360318</v>
+        <v>0.014651607837669387</v>
       </c>
     </row>
     <row r="811">
       <c r="A811">
-        <v>0.01487247774090103</v>
+        <v>0.014851209568849553</v>
       </c>
     </row>
     <row r="812">
       <c r="A812">
-        <v>0.019443767118434291</v>
+        <v>0.019426431354529448</v>
       </c>
     </row>
     <row r="813">
       <c r="A813">
-        <v>0.014905139126439256</v>
+        <v>0.014899656626637208</v>
       </c>
     </row>
     <row r="814">
       <c r="A814">
-        <v>0.0066198517809679409</v>
+        <v>0.0066289455536192319</v>
       </c>
     </row>
     <row r="815">
       <c r="A815">
-        <v>0.035539761918204682</v>
+        <v>0.035496922603612743</v>
       </c>
     </row>
     <row r="816">
       <c r="A816">
-        <v>0.036013383468751776</v>
+        <v>0.035974133320418593</v>
       </c>
     </row>
     <row r="817">
       <c r="A817">
-        <v>0.027374512126464211</v>
+        <v>0.027355836646175268</v>
       </c>
     </row>
     <row r="818">
       <c r="A818">
-        <v>0.013495414098389917</v>
+        <v>0.013489311690090365</v>
       </c>
     </row>
     <row r="819">
       <c r="A819">
-        <v>0.015015684609487967</v>
+        <v>0.015012770449901118</v>
       </c>
     </row>
     <row r="820">
       <c r="A820">
-        <v>0.015232037170760142</v>
+        <v>0.015229581757849961</v>
       </c>
     </row>
     <row r="821">
       <c r="A821">
-        <v>0.018789179447849531</v>
+        <v>0.018789043581093456</v>
       </c>
     </row>
     <row r="822">
       <c r="A822">
-        <v>0.01269409996092887</v>
+        <v>0.012701974396244729</v>
       </c>
     </row>
     <row r="823">
       <c r="A823">
-        <v>0.0046069821785571586</v>
+        <v>0.0046280752074993395</v>
       </c>
     </row>
     <row r="824">
       <c r="A824">
-        <v>0.00098479226332768405</v>
+        <v>0.00098063311317293095</v>
       </c>
     </row>
     <row r="825">
       <c r="A825">
-        <v>0.03458357983496179</v>
+        <v>0.034516832517616433</v>
       </c>
     </row>
     <row r="826">
       <c r="A826">
-        <v>0.033097043333843029</v>
+        <v>0.033025672717717579</v>
       </c>
     </row>
     <row r="827">
       <c r="A827">
-        <v>0.024075922732511603</v>
+        <v>0.024029682088420427</v>
       </c>
     </row>
     <row r="828">
       <c r="A828">
-        <v>0.01234678482283888</v>
+        <v>0.012332362388789863</v>
       </c>
     </row>
     <row r="829">
       <c r="A829">
-        <v>0.016878732616887607</v>
+        <v>0.016885992677710973</v>
       </c>
     </row>
     <row r="830">
       <c r="A830">
-        <v>0.017080604302808881</v>
+        <v>0.017088242113635004</v>
       </c>
     </row>
     <row r="831">
       <c r="A831">
-        <v>0.01955987364515745</v>
+        <v>0.019566679987715871</v>
       </c>
     </row>
     <row r="832">
       <c r="A832">
-        <v>0.01313815095418667</v>
+        <v>0.013147637897691281</v>
       </c>
     </row>
     <row r="833">
       <c r="A833">
-        <v>0.0056547689444159579</v>
+        <v>0.0056772718306067633</v>
       </c>
     </row>
     <row r="834">
       <c r="A834">
-        <v>0.0011799204582277521</v>
+        <v>0.0011974639929565147</v>
       </c>
     </row>
     <row r="835">
       <c r="A835">
-        <v>0.033563452966855763</v>
+        <v>0.033490240953645653</v>
       </c>
     </row>
     <row r="836">
       <c r="A836">
-        <v>0.029228276634867944</v>
+        <v>0.029162163698811822</v>
       </c>
     </row>
     <row r="837">
       <c r="A837">
-        <v>0.019575659245738536</v>
+        <v>0.019529169732065754</v>
       </c>
     </row>
     <row r="838">
       <c r="A838">
-        <v>0.012569867109025655</v>
+        <v>0.012563283313715267</v>
       </c>
     </row>
     <row r="839">
       <c r="A839">
-        <v>0.01894773719815647</v>
+        <v>0.018954730612886529</v>
       </c>
     </row>
     <row r="840">
       <c r="A840">
-        <v>0.019217986251896645</v>
+        <v>0.019225418852832406</v>
       </c>
     </row>
     <row r="841">
       <c r="A841">
-        <v>0.023064385166592219</v>
+        <v>0.023065391102412489</v>
       </c>
     </row>
     <row r="842">
       <c r="A842">
-        <v>0.016120129453665276</v>
+        <v>0.016125130476602745</v>
       </c>
     </row>
     <row r="843">
       <c r="A843">
-        <v>0.0092889670644281004</v>
+        <v>0.0093042427529345228</v>
       </c>
     </row>
     <row r="844">
       <c r="A844">
-        <v>0.0028610235880151425</v>
+        <v>0.0028857716360610186</v>
       </c>
     </row>
     <row r="845">
       <c r="A845">
-        <v>0.028836366197245885</v>
+        <v>0.028780858586673511</v>
       </c>
     </row>
     <row r="846">
       <c r="A846">
-        <v>0.024095281448297815</v>
+        <v>0.024047721788492356</v>
       </c>
     </row>
     <row r="847">
       <c r="A847">
-        <v>0.016822219604671541</v>
+        <v>0.016793255107663059</v>
       </c>
     </row>
     <row r="848">
       <c r="A848">
-        <v>0.014878209856062153</v>
+        <v>0.014876644344667428</v>
       </c>
     </row>
     <row r="849">
       <c r="A849">
-        <v>0.021751234268896379</v>
+        <v>0.021756702866264178</v>
       </c>
     </row>
     <row r="850">
       <c r="A850">
-        <v>0.021943806084001972</v>
+        <v>0.021949526993590977</v>
       </c>
     </row>
     <row r="851">
       <c r="A851">
-        <v>0.025299956851835073</v>
+        <v>0.025297046267437628</v>
       </c>
     </row>
     <row r="852">
       <c r="A852">
-        <v>0.020116138155651931</v>
+        <v>0.020113184558725229</v>
       </c>
     </row>
     <row r="853">
       <c r="A853">
-        <v>0.012906066444497506</v>
+        <v>0.012910344308746756</v>
       </c>
     </row>
     <row r="854">
       <c r="A854">
-        <v>0.006380923817446869</v>
+        <v>0.006393454225521112</v>
       </c>
     </row>
     <row r="855">
       <c r="A855">
-        <v>0.024029982519814086</v>
+        <v>0.023996093399430405</v>
       </c>
     </row>
     <row r="856">
       <c r="A856">
-        <v>0.020985862908412291</v>
+        <v>0.020950583034137899</v>
       </c>
     </row>
     <row r="857">
       <c r="A857">
-        <v>0.01620692105311981</v>
+        <v>0.016182967488455633</v>
       </c>
     </row>
     <row r="858">
       <c r="A858">
-        <v>0.016487672681426695</v>
+        <v>0.016486429629886893</v>
       </c>
     </row>
     <row r="859">
       <c r="A859">
-        <v>0.022605688459896911</v>
+        <v>0.022610305952718408</v>
       </c>
     </row>
     <row r="860">
       <c r="A860">
-        <v>0.022576511064317781</v>
+        <v>0.022581067774439342</v>
       </c>
     </row>
     <row r="861">
       <c r="A861">
-        <v>0.0254729337776975</v>
+        <v>0.025468000365408246</v>
       </c>
     </row>
     <row r="862">
       <c r="A862">
-        <v>0.019980755261515701</v>
+        <v>0.019970104502812964</v>
       </c>
     </row>
     <row r="863">
       <c r="A863">
-        <v>0.01314016292446213</v>
+        <v>0.01313178998918677</v>
       </c>
     </row>
     <row r="864">
       <c r="A864">
-        <v>0.0092910764893029546</v>
+        <v>0.0092927963334791426</v>
       </c>
     </row>
     <row r="865">
       <c r="A865">
-        <v>0.021181788707864347</v>
+        <v>0.021150504823774039</v>
       </c>
     </row>
     <row r="866">
       <c r="A866">
-        <v>0.019057842123425178</v>
+        <v>0.019025511829394687</v>
       </c>
     </row>
     <row r="867">
       <c r="A867">
-        <v>0.016414153352760211</v>
+        <v>0.016391653796971092</v>
       </c>
     </row>
     <row r="868">
       <c r="A868">
-        <v>0.017335543519988717</v>
+        <v>0.017336094657803246</v>
       </c>
     </row>
     <row r="869">
       <c r="A869">
-        <v>0.021724098043678485</v>
+        <v>0.021733834475507592</v>
       </c>
     </row>
     <row r="870">
       <c r="A870">
-        <v>0.021829294311266036</v>
+        <v>0.021839231618320732</v>
       </c>
     </row>
     <row r="871">
       <c r="A871">
-        <v>0.022673325139073879</v>
+        <v>0.022675598328563067</v>
       </c>
     </row>
     <row r="872">
       <c r="A872">
-        <v>0.018776394317236385</v>
+        <v>0.018768659313887395</v>
       </c>
     </row>
     <row r="873">
       <c r="A873">
-        <v>0.013870158887140754</v>
+        <v>0.01386058954253528</v>
       </c>
     </row>
     <row r="874">
       <c r="A874">
-        <v>0.00832768527938073</v>
+        <v>0.0083254749498361865</v>
       </c>
     </row>
     <row r="875">
       <c r="A875">
-        <v>0.01662723305070744</v>
+        <v>0.016604225221742389</v>
       </c>
     </row>
     <row r="876">
       <c r="A876">
-        <v>0.020302005635320475</v>
+        <v>0.020239974025257769</v>
       </c>
     </row>
     <row r="877">
       <c r="A877">
-        <v>0.02081511120575431</v>
+        <v>0.020753316606647556</v>
       </c>
     </row>
     <row r="878">
       <c r="A878">
-        <v>0.025846165473408581</v>
+        <v>0.025798424838688841</v>
       </c>
     </row>
     <row r="879">
       <c r="A879">
-        <v>0.020100856823479559</v>
+        <v>0.020126243404351443</v>
       </c>
     </row>
     <row r="880">
       <c r="A880">
-        <v>0.016692898736477058</v>
+        <v>0.016670198678077591</v>
       </c>
     </row>
     <row r="881">
       <c r="A881">
-        <v>0.020433671296609699</v>
+        <v>0.020371194567997877</v>
       </c>
     </row>
     <row r="882">
       <c r="A882">
-        <v>0.020756724027721503</v>
+        <v>0.020694480991364558</v>
       </c>
     </row>
     <row r="883">
       <c r="A883">
-        <v>0.025942585706399623</v>
+        <v>0.025894826692106136</v>
       </c>
     </row>
     <row r="884">
       <c r="A884">
-        <v>0.022644627417040711</v>
+        <v>0.022617499610593641</v>
       </c>
     </row>
     <row r="885">
       <c r="A885">
-        <v>0.033408157121172039</v>
+        <v>0.033393389266628506</v>
       </c>
     </row>
     <row r="886">
       <c r="A886">
-        <v>0.023623246534162645</v>
+        <v>0.023632281666776646</v>
       </c>
     </row>
     <row r="887">
       <c r="A887">
-        <v>0.016359333004690203</v>
+        <v>0.016349110703477821</v>
       </c>
     </row>
     <row r="888">
       <c r="A888">
-        <v>0.020904027810913519</v>
+        <v>0.02086580233561821</v>
       </c>
     </row>
     <row r="889">
       <c r="A889">
-        <v>0.021331319314456379</v>
+        <v>0.021293431576717144</v>
       </c>
     </row>
     <row r="890">
       <c r="A890">
-        <v>0.026692682375200623</v>
+        <v>0.026666636679242101</v>
       </c>
     </row>
     <row r="891">
       <c r="A891">
-        <v>0.021164759931938743</v>
+        <v>0.021155389318902176</v>
       </c>
     </row>
     <row r="892">
       <c r="A892">
-        <v>0.034272905720416878</v>
+        <v>0.034222026102702433</v>
       </c>
     </row>
     <row r="893">
       <c r="A893">
-        <v>0.031382953964859246</v>
+        <v>0.031343686125683036</v>
       </c>
     </row>
     <row r="894">
       <c r="A894">
-        <v>0.021772582908717614</v>
+        <v>0.021765543921105173</v>
       </c>
     </row>
     <row r="895">
       <c r="A895">
-        <v>0.015901014678055055</v>
+        <v>0.015892202452199255</v>
       </c>
     </row>
     <row r="896">
       <c r="A896">
-        <v>0.021078286174721423</v>
+        <v>0.021054046735848927</v>
       </c>
     </row>
     <row r="897">
       <c r="A897">
-        <v>0.021379353621353459</v>
+        <v>0.021355448058556849</v>
       </c>
     </row>
     <row r="898">
       <c r="A898">
-        <v>0.027282086660236717</v>
+        <v>0.027263190702340311</v>
       </c>
     </row>
     <row r="899">
       <c r="A899">
-        <v>0.022296423414225806</v>
+        <v>0.022289369381545205</v>
       </c>
     </row>
     <row r="900">
       <c r="A900">
-        <v>0.032657506849162965</v>
+        <v>0.032605355518885833</v>
       </c>
     </row>
     <row r="901">
       <c r="A901">
-        <v>0.028300070690302655</v>
+        <v>0.028261341597824893</v>
       </c>
     </row>
     <row r="902">
       <c r="A902">
-        <v>0.020285150578266242</v>
+        <v>0.020272389788460778</v>
       </c>
     </row>
     <row r="903">
       <c r="A903">
-        <v>0.015756503010354288</v>
+        <v>0.015747908606802849</v>
       </c>
     </row>
     <row r="904">
       <c r="A904">
-        <v>0.021647494271416989</v>
+        <v>0.021625475674101464</v>
       </c>
     </row>
     <row r="905">
       <c r="A905">
-        <v>0.021969013904535692</v>
+        <v>0.021947347724958568</v>
       </c>
     </row>
     <row r="906">
       <c r="A906">
-        <v>0.027670782881783321</v>
+        <v>0.027645898445713649</v>
       </c>
     </row>
     <row r="907">
       <c r="A907">
-        <v>0.025317294727211455</v>
+        <v>0.025302323027009639</v>
       </c>
     </row>
     <row r="908">
       <c r="A908">
-        <v>0.027490182188982706</v>
+        <v>0.027453813097679608</v>
       </c>
     </row>
     <row r="909">
       <c r="A909">
-        <v>0.023484505548282818</v>
+        <v>0.023460060074764616</v>
       </c>
     </row>
     <row r="910">
       <c r="A910">
-        <v>0.018349865105952812</v>
+        <v>0.01833364658039437</v>
       </c>
     </row>
     <row r="911">
       <c r="A911">
-        <v>0.016599279327118594</v>
+        <v>0.016585458823820631</v>
       </c>
     </row>
     <row r="912">
       <c r="A912">
-        <v>0.022018331656593552</v>
+        <v>0.021999507310654857</v>
       </c>
     </row>
     <row r="913">
       <c r="A913">
-        <v>0.022125763488261237</v>
+        <v>0.022106936148427618</v>
       </c>
     </row>
     <row r="914">
       <c r="A914">
-        <v>0.027277124690466979</v>
+        <v>0.027252080115349263</v>
       </c>
     </row>
     <row r="915">
       <c r="A915">
-        <v>0.025288094445752786</v>
+        <v>0.025268971720584971</v>
       </c>
     </row>
     <row r="916">
       <c r="A916">
-        <v>0.019031652227375566</v>
+        <v>0.01901918368805099</v>
       </c>
     </row>
     <row r="917">
       <c r="A917">
-        <v>0.026055642809321867</v>
+        <v>0.026030790037881602</v>
       </c>
     </row>
     <row r="918">
       <c r="A918">
-        <v>0.016816210740099029</v>
+        <v>0.016804577388028652</v>
       </c>
     </row>
     <row r="919">
       <c r="A919">
-        <v>0.021296261857178141</v>
+        <v>0.021283488541371534</v>
       </c>
     </row>
     <row r="920">
       <c r="A920">
-        <v>0.021204986690443642</v>
+        <v>0.021192204070479514</v>
       </c>
     </row>
     <row r="921">
       <c r="A921">
-        <v>0.024404866583844928</v>
+        <v>0.024390362465538818</v>
       </c>
     </row>
     <row r="922">
       <c r="A922">
-        <v>0.023424402603292885</v>
+        <v>0.023405768809227342</v>
       </c>
     </row>
   </sheetData>
